--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150508.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150508.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
-    <sheet name="AS-S" sheetId="10" r:id="rId2"/>
-    <sheet name="AS-R" sheetId="11" r:id="rId3"/>
-    <sheet name="AS-F" sheetId="15" r:id="rId4"/>
-    <sheet name="PRL - RRHH" sheetId="16" r:id="rId5"/>
-    <sheet name="PP" sheetId="4" r:id="rId6"/>
-    <sheet name="AP" sheetId="5" r:id="rId7"/>
-    <sheet name="MF" sheetId="6" r:id="rId8"/>
-    <sheet name="Mkt" sheetId="8" r:id="rId9"/>
-    <sheet name="AdminCRM" sheetId="9" r:id="rId10"/>
-    <sheet name="CRM Data" sheetId="14" r:id="rId11"/>
-    <sheet name="Key Users" sheetId="7" r:id="rId12"/>
+    <sheet name="temp" sheetId="17" r:id="rId2"/>
+    <sheet name="AS-S" sheetId="10" r:id="rId3"/>
+    <sheet name="AS-R" sheetId="11" r:id="rId4"/>
+    <sheet name="AS-F" sheetId="15" r:id="rId5"/>
+    <sheet name="PRL - RRHH" sheetId="16" r:id="rId6"/>
+    <sheet name="PP" sheetId="4" r:id="rId7"/>
+    <sheet name="AP" sheetId="5" r:id="rId8"/>
+    <sheet name="MF" sheetId="6" r:id="rId9"/>
+    <sheet name="Mkt" sheetId="8" r:id="rId10"/>
+    <sheet name="AdminCRM" sheetId="9" r:id="rId11"/>
+    <sheet name="CRM Data" sheetId="14" r:id="rId12"/>
+    <sheet name="Key Users" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
@@ -101,6 +102,30 @@
 </comments>
 </file>
 
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Campos</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -108,6 +133,34 @@
   </authors>
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +246,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Campos</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,17 +270,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Angel Campos</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="185">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -316,9 +369,6 @@
     <t>Key Account Manager - KAM</t>
   </si>
   <si>
-    <t>PC portátil, Smartphone</t>
-  </si>
-  <si>
     <t>Regional Manager - RM</t>
   </si>
   <si>
@@ -332,9 +382,6 @@
   </si>
   <si>
     <t xml:space="preserve">Planificación Producción  </t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">PC </t>
@@ -384,9 +431,6 @@
   </si>
   <si>
     <t>User Permissions</t>
-  </si>
-  <si>
-    <t>FV HQ, International Subsidiaries y Home-Office</t>
   </si>
   <si>
     <t>Remote Working Condition</t>
@@ -465,9 +509,6 @@
 Consulta datos globales sobre sus KAM, su región y otras regiones (informes)</t>
   </si>
   <si>
-    <t>PC portátil, Tablet (iPad), Smartphone</t>
-  </si>
-  <si>
     <t>Javier Coloma, Juan Carlos Jadraque, José Luis González, Javier Villanueva</t>
   </si>
   <si>
@@ -511,13 +552,7 @@
     <t>AfterSales-Spares</t>
   </si>
   <si>
-    <t>FV HQ, International Subsidiaries</t>
-  </si>
-  <si>
     <t>Office</t>
-  </si>
-  <si>
-    <t>PC portátil</t>
   </si>
   <si>
     <t>Solicitudes de nuevas cuentas
@@ -545,9 +580,6 @@
   </si>
   <si>
     <t>CRM Data Entry Assistant</t>
-  </si>
-  <si>
-    <t>PC Desktop</t>
   </si>
   <si>
     <t>Fichas de Empresas FV</t>
@@ -677,12 +709,6 @@
     <t xml:space="preserve"> AfterSales - Field</t>
   </si>
   <si>
-    <t>FV HQ</t>
-  </si>
-  <si>
-    <t>Office + Remote</t>
-  </si>
-  <si>
     <t>Eduardo Cordovín, Andrés Pinilla, Jorge Martínez, Iñaki Gil, Juan Carlos Ramírez, ASF Italia, ASF Francia, ASF USA, Ingeteam Service</t>
   </si>
   <si>
@@ -712,12 +738,6 @@
     <t>5% de su tiempo - ( 2 hrs / semanales)</t>
   </si>
   <si>
-    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y la gestión de repuestos.</t>
-  </si>
-  <si>
-    <t>Gestión de grandes cuentas y proyectos asi como la apertura de nuevos mercados y la ejecución de la política comercial planificada, manteniendo e incrementando la cartera de clientes</t>
-  </si>
-  <si>
     <t>Workflow email</t>
   </si>
   <si>
@@ -757,9 +777,6 @@
   </si>
   <si>
     <t>Major CRM Advantages</t>
-  </si>
-  <si>
-    <t>New Licenses Estimate (2016-2020)</t>
   </si>
   <si>
     <t>PENDIENTE POR DEFINIR</t>
@@ -819,19 +836,10 @@
     <t>Key Users</t>
   </si>
   <si>
-    <t>Desarrollar las tareas administrativas/comerciales del área/dpto. Dar soporte en las áreas de negocio a los Dptos.de Ingeniería, I+D, comercial y SAT.</t>
-  </si>
-  <si>
     <t>Estimated Workload 
 (CRM interaction time)</t>
   </si>
   <si>
-    <t>IPT-FV HQ/Remote</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
     <t>Iván Guzmán</t>
   </si>
   <si>
@@ -849,9 +857,6 @@
     <t>Carga de trabajo adicional</t>
   </si>
   <si>
-    <t>Desktop, portátil, smartphone</t>
-  </si>
-  <si>
     <t>5 hr/semana</t>
   </si>
   <si>
@@ -859,9 +864,6 @@
   </si>
   <si>
     <t>IPT-FV HQ</t>
-  </si>
-  <si>
-    <t>No aplica</t>
   </si>
   <si>
     <t>Desktop</t>
@@ -934,42 +936,159 @@
 Es el CRM Admin</t>
   </si>
   <si>
-    <t>Impulsar las ventas en las regiones bajo su cargo. Planificar y dirigir planes organizacionales, servicio a los clientes y ejecución de todas las estragias de operación de manera consistente y exitosa.</t>
-  </si>
-  <si>
-    <t>El establecimiento de medidas de control y correctoras para evitar y reducir los riesgos con el fin de conseguir la mejora de la seguridad y la salud en el entorno laboral.</t>
-  </si>
-  <si>
-    <t>Desarrollar adecuadamente la cultura organizacional de la empresa y supervisar que los cambios en las condiciones de trabajo sean debidamente coordinadas para asegurar la productividad de la empresa.</t>
-  </si>
-  <si>
     <t>Entrada de datos en el CRM a petición de empleados de IPT-FV.</t>
-  </si>
-  <si>
-    <t>Cumple funciones de formación, puesta en marcha, mantenimiento, resolución de errores y problemas y de informar a gerencia sobre el sistema CRM.</t>
-  </si>
-  <si>
-    <t>Gestionar y coordinar todas las actividades relacionadas con la comunicación de la empresa con terceros
-(prensa, Web, ferias).</t>
-  </si>
-  <si>
-    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y en específico asistencia técnica al cliente en field.</t>
-  </si>
-  <si>
-    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y gestión del proceso de reparaciones.</t>
-  </si>
-  <si>
-    <t>Planificar y dirigir la política de promoción, venta y distribución de productos y servicios de la compañía.</t>
-  </si>
-  <si>
-    <t>Establecer los planes de producción en acuerdo con las previsiones de ventas. Gestionar el inventario de productos así como garantizar las acciones preventivas y correctivas para asegurar la satisfacción de las necesidades del servicio comercial y de la producción.</t>
-  </si>
-  <si>
-    <t>Supervisar y aprobar la gestión contable así como llevar a cabo el análisis financiero de proyectos y situación de la compañía.</t>
   </si>
   <si>
     <t xml:space="preserve">Informes marcha negocio filiales y global 
       Status proyectos y pipelines       </t>
+  </si>
+  <si>
+    <t>Office, VPN</t>
+  </si>
+  <si>
+    <t>Carlos Lezana</t>
+  </si>
+  <si>
+    <t>Gestión de marketing</t>
+  </si>
+  <si>
+    <t>Mecaniza y centraliza el envío de comunicaciones, noticias y newsletter</t>
+  </si>
+  <si>
+    <t>5-10 hr/semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noticias
+Comunicaciones de la empresa
+Newsletters </t>
+  </si>
+  <si>
+    <t>Histórico de noticias y comunicaciones
+Histórico de newsletters
+Listado de empresas (BD1) y contactos (BD2)</t>
+  </si>
+  <si>
+    <t>Acceder a un listado de empresas (BD1) y contactos (BD2)
+Gestión de newsletters y comunicaciones (BD6)</t>
+  </si>
+  <si>
+    <t>1 (¿posible futuro asistente?)</t>
+  </si>
+  <si>
+    <t>Estimate of New Licenses (2016-2020)</t>
+  </si>
+  <si>
+    <t>Proceso general de ventas
+Gestión de ofertas
+Gestión de cuentas BD1 - Companies
+Gestión de marketing
+Gestión de incidencias
+Gestión de usuarios CRM (alta/baja de usuarios)</t>
+  </si>
+  <si>
+    <t>Proceso general de ventas
+Gestión de ofertas
+Gestión de cuentas BD1 - Companies
+Gestión de marketing
+Gestión de usuarios CRM (alta/baja de usuarios)</t>
+  </si>
+  <si>
+    <t>Gestión de ofertas
+Gestión de incidencias</t>
+  </si>
+  <si>
+    <t>Gestión de incidencias</t>
+  </si>
+  <si>
+    <t>Proceso general de ventas
+Gestión de ofertas</t>
+  </si>
+  <si>
+    <t>Proceso general de ventas
+Gestión de ofertas
+Gestión de incidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de grandes cuentas y proyectos
+Apertura de nuevos mercados
+Ejecución de la política comercial </t>
+  </si>
+  <si>
+    <t>Establecer medidas para evitar y reducir los riesgos en el entorno laboral</t>
+  </si>
+  <si>
+    <t>Establecer los planes de producción 
+Gestionar el inventario de productos</t>
+  </si>
+  <si>
+    <t>Desarrollar las tareas administrativas/comerciales del área/dpto.
+Dar soporte en las áreas de negocio a los Dptos.de Ingeniería, I+D, comercial y SAT.</t>
+  </si>
+  <si>
+    <t>HQ FV Sarriguren, Events/Fairs/Expos</t>
+  </si>
+  <si>
+    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y la gestión de repuestos</t>
+  </si>
+  <si>
+    <t>Dirigir la política de promoción, venta y distribución de productos y servicios de la compañía</t>
+  </si>
+  <si>
+    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y gestión del proceso de reparaciones</t>
+  </si>
+  <si>
+    <t>Coordinación de las asistencias post-venta a cliente por problemas de diseño de producto y en específico asistencia técnica al cliente en el campo</t>
+  </si>
+  <si>
+    <t>Supervisar y aprobar la gestión contable
+Análisis financiero de proyectos y situación de la compañía</t>
+  </si>
+  <si>
+    <t>Gestionar y coordinar todas las actividades relacionadas con la comunicación de la empresa con terceros
+(prensa, Web, ferias)</t>
+  </si>
+  <si>
+    <t>Formación
+Puesta en marcha
+Mantenimiento 
+Informar a gerencia sobre el sistema CRM</t>
+  </si>
+  <si>
+    <t>HQ FV Sarriguren, Remote</t>
+  </si>
+  <si>
+    <t>HQ FV Sarriguren, International Subsidiaries y Home-Office</t>
+  </si>
+  <si>
+    <t>HQ FV Sarriguren, International Subsidiaries</t>
+  </si>
+  <si>
+    <t>Office, Remote</t>
+  </si>
+  <si>
+    <t>Impulsar las ventas
+Ejecución de todas las estrategias de operación</t>
+  </si>
+  <si>
+    <t>laptop, Smartphone</t>
+  </si>
+  <si>
+    <t>laptop, Tablet (iPad), Smartphone</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Desktop, laptop, Smartphone</t>
+  </si>
+  <si>
+    <t>Desktop, laptop, smartphone</t>
+  </si>
+  <si>
+    <t>Desarrollar la cultura corporativa
+Supervisar las condiciones de trabajo
+Reclutación
+Capacitación</t>
   </si>
 </sst>
 </file>
@@ -1060,12 +1179,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1143,17 +1262,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1171,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1224,15 +1329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1341,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1550,93 +1658,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="45.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>161</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1647,7 +1754,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1661,120 +1768,117 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1782,6 +1886,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1797,124 +2046,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>127</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="19">
+        <v>102</v>
+      </c>
+      <c r="B6" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="19">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>129</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>130</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>131</v>
+        <v>94</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>132</v>
+        <v>98</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>135</v>
+        <v>96</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1926,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1941,121 +2190,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>137</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>138</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>139</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>140</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="19">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>141</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>144</v>
+        <v>98</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>144</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>146</v>
+        <v>96</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>145</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2068,127 +2317,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="33.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="33.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>123</v>
+      <c r="B3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="C6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="C7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="C9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>153</v>
+      <c r="C11" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2201,139 +2450,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:A15"/>
+    <sheetView topLeftCell="E1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="45.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,133 +2777,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2489,58 +2920,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="78.85546875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>167</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -2548,7 +3122,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -2556,64 +3130,64 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2626,12 +3200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="C1:D15"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,85 +3214,85 @@
     <col min="2" max="2" width="44.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="14" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2726,13 +3300,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2740,120 +3314,120 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>99</v>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2866,12 +3440,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,46 +3456,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2929,7 +3503,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -2937,66 +3511,66 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3009,12 +3583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,46 +3599,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -3072,7 +3646,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -3080,55 +3654,55 @@
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -3136,10 +3710,10 @@
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3168,14 +3742,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>171</v>
@@ -3183,40 +3757,40 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3224,71 +3798,71 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
-        <v>72</v>
+      <c r="C16" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3299,148 +3873,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>